--- a/biology/Botanique/Terminalia_ferdinandiana/Terminalia_ferdinandiana.xlsx
+++ b/biology/Botanique/Terminalia_ferdinandiana/Terminalia_ferdinandiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terminalia ferdinandiana, aussi connu sous les noms de prune de Kakadu, Gubinge ou Murunga (ou encore Billy Goat Plum ou Kakadu plum en anglais), est une plante à fleur de la famille des Combretaceae, natif d'Australie où il est largement répandu dans les bois depuis le Kimberley jusqu'à l'est de la Terre d'Arnhem[1].
-Son fruit possède la plus grande teneur en vitamine C (cinquante fois supérieure à celle d'une orange) de tous les fruits[2]. Il est aussi très riche en anti-oxydants.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terminalia ferdinandiana, aussi connu sous les noms de prune de Kakadu, Gubinge ou Murunga (ou encore Billy Goat Plum ou Kakadu plum en anglais), est une plante à fleur de la famille des Combretaceae, natif d'Australie où il est largement répandu dans les bois depuis le Kimberley jusqu'à l'est de la Terre d'Arnhem.
+Son fruit possède la plus grande teneur en vitamine C (cinquante fois supérieure à celle d'une orange) de tous les fruits. Il est aussi très riche en anti-oxydants.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre élancé, de taille petite à moyenne pouvant atteindre jusqu'à 14 m de hauteur, à l'écorce écailleuse tachetée de crème, vert, gris, orange, jaune et aux feuilles simples opposées, lancéolées, vert gris. Les fleurs sont petites, d'un blanc crémeux, parfumées et situées à l'aisselle des feuilles vers l'extrémité des branches. La floraison a lieu de septembre à décembre (printemps austral et été). 
 Le fruit est vert-jaune, d'environ 2 centimètres de long et 1 centimètre de diamètre, de la taille d'une amande avec une courte pointe à l'extrémité, et contient une grosse graine. Il mûrit à partir de mars.
@@ -544,7 +558,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la comédie Santa et Cie, film français d'Alain Chabat sorti en 2017, le père Noël est à la recherche de prunes de Kakadu pour guérir ses lutins.
 </t>
